--- a/src/main/resources/excel/gangtai.xlsx
+++ b/src/main/resources/excel/gangtai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>10.144.110.49</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-003服</t>
+  </si>
+  <si>
+    <t>10.144.111.79</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-004服</t>
+  </si>
+  <si>
+    <t>10.144.110.131</t>
   </si>
 </sst>
 </file>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,6 +727,34 @@
         <v>35011</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>3306</v>
+      </c>
+      <c r="D13">
+        <v>35012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>3306</v>
+      </c>
+      <c r="D14">
+        <v>35013</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/gangtai.xlsx
+++ b/src/main/resources/excel/gangtai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,13 @@
     <t>10.144.112.34</t>
   </si>
   <si>
+    <t>不良人港台日志备份及数据异地备份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.144.110.49</t>
+  </si>
+  <si>
     <t>不良人港台WEB-001服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,23 +114,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人港台日志备份及数据异地备份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.144.110.49</t>
-  </si>
-  <si>
     <t>不良人港台WEB-003服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.144.111.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不良人港台WEB-004服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.144.110.131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人港台WEB-005服</t>
+  </si>
+  <si>
+    <t>10.144.102.141</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-006服</t>
+  </si>
+  <si>
+    <t>10.144.113.78</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-007服</t>
+  </si>
+  <si>
+    <t>10.144.116.78</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-008服</t>
+  </si>
+  <si>
+    <t>10.144.109.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人港台WEB-009服</t>
+  </si>
+  <si>
+    <t>10.144.107.174</t>
   </si>
 </sst>
 </file>
@@ -184,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,19 +231,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -235,8 +257,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,10 +709,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3306</v>
@@ -701,10 +723,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -714,11 +736,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C12">
         <v>3306</v>
@@ -728,10 +750,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13">
@@ -742,10 +764,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14">
@@ -753,6 +775,76 @@
       </c>
       <c r="D14">
         <v>35013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>3306</v>
+      </c>
+      <c r="D15">
+        <v>35014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>3306</v>
+      </c>
+      <c r="D16">
+        <v>35015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>3306</v>
+      </c>
+      <c r="D17">
+        <v>35016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>3306</v>
+      </c>
+      <c r="D18">
+        <v>35017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>3306</v>
+      </c>
+      <c r="D19">
+        <v>35018</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/gangtai.xlsx
+++ b/src/main/resources/excel/gangtai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>10.144.107.174</t>
+  </si>
+  <si>
+    <t>不良人港台测试服web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.144.97.224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D10" sqref="D10:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,11 +730,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -737,10 +745,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>3306</v>
@@ -751,10 +759,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>3306</v>
@@ -765,10 +773,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>3306</v>
@@ -778,11 +786,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15">
         <v>3306</v>
@@ -793,10 +801,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>3306</v>
@@ -807,10 +815,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>3306</v>
@@ -821,10 +829,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>3306</v>
@@ -835,16 +843,30 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>3306</v>
       </c>
       <c r="D19">
         <v>35018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>3306</v>
+      </c>
+      <c r="D20">
+        <v>35019</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/gangtai.xlsx
+++ b/src/main/resources/excel/gangtai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,75 +98,85 @@
     <t>10.144.110.49</t>
   </si>
   <si>
-    <t>不良人港台WEB-001服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>不良人港台WEB-008服</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-009服</t>
+  </si>
+  <si>
+    <t>10.144.107.174</t>
+  </si>
+  <si>
+    <t>不良人港台测试服web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.144.97.224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-001-003服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人港台WEB-004-007服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人港台WEB-010服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人港台WEB-011服</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-012服</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-013服</t>
+  </si>
+  <si>
+    <t>不良人港台WEB-014服</t>
   </si>
   <si>
     <t>10.144.65.211</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人港台WEB-002服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.144.75.37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人港台WEB-003服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.144.111.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人港台WEB-004服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.144.110.131</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人港台WEB-005服</t>
-  </si>
-  <si>
-    <t>10.144.102.141</t>
-  </si>
-  <si>
-    <t>不良人港台WEB-006服</t>
-  </si>
-  <si>
-    <t>10.144.113.78</t>
-  </si>
-  <si>
-    <t>不良人港台WEB-007服</t>
-  </si>
-  <si>
-    <t>10.144.116.78</t>
-  </si>
-  <si>
-    <t>不良人港台WEB-008服</t>
-  </si>
-  <si>
     <t>10.144.109.24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人港台WEB-009服</t>
-  </si>
-  <si>
-    <t>10.144.107.174</t>
-  </si>
-  <si>
-    <t>不良人港台测试服web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.144.97.224</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>10.144.76.103</t>
+  </si>
+  <si>
+    <t>10.144.81.36</t>
+  </si>
+  <si>
+    <t>10.144.80.235</t>
+  </si>
+  <si>
+    <t>10.144.88.46</t>
+  </si>
+  <si>
+    <t>10.144.83.249</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -204,7 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -572,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D20"/>
+      <selection activeCell="I2" sqref="I2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,9 +593,11 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,8 +613,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,8 +639,20 @@
       <c r="D2">
         <v>35001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,8 +665,20 @@
       <c r="D3">
         <v>35002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,8 +691,20 @@
       <c r="D4">
         <v>35003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -658,8 +717,20 @@
       <c r="D5">
         <v>35004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,8 +743,20 @@
       <c r="D6">
         <v>35005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -686,8 +769,20 @@
       <c r="D7">
         <v>35006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,8 +795,20 @@
       <c r="D8">
         <v>35007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -714,8 +821,20 @@
       <c r="D9">
         <v>35008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -728,13 +847,25 @@
       <c r="D10">
         <v>35009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -742,13 +873,25 @@
       <c r="D11">
         <v>35010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>3306</v>
@@ -756,13 +899,25 @@
       <c r="D12">
         <v>35011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C13">
         <v>3306</v>
@@ -770,13 +925,25 @@
       <c r="D13">
         <v>35012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>3306</v>
@@ -784,13 +951,25 @@
       <c r="D14">
         <v>35013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>3306</v>
@@ -798,13 +977,25 @@
       <c r="D15">
         <v>35014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C16">
         <v>3306</v>
@@ -812,13 +1003,25 @@
       <c r="D16">
         <v>35015</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C17">
         <v>3306</v>
@@ -826,13 +1029,25 @@
       <c r="D17">
         <v>35016</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>36</v>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C18">
         <v>3306</v>
@@ -840,13 +1055,25 @@
       <c r="D18">
         <v>35017</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C19">
         <v>3306</v>
@@ -854,23 +1081,48 @@
       <c r="D19">
         <v>35018</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C20">
         <v>3306</v>
       </c>
       <c r="D20">
         <v>35019</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>